--- a/src/test/resources/excel/User/UserController-IntegrationtestData.xlsx
+++ b/src/test/resources/excel/User/UserController-IntegrationtestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\Desktop\pbl6\backend\backend\src\test\resources\excel\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A5A4B-90EA-4019-891B-A402A1BF21EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5107E5-EC34-4126-837D-F74A7798F3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0AF89402-F3F6-444A-A783-32C61F98DAD5}"/>
   </bookViews>
@@ -172,24 +172,16 @@
     <t>userIdToUpdate</t>
   </si>
   <si>
-    <t>{"name": "newuser", "email": "new@email.com", "password": "password123", "roles": [
-    { "name": "USER" }
-  ]}</t>
-  </si>
-  <si>
-    <t>{"name": "a", "email": "a@email.com", "password": "password123", "roles": [
-    { "name": "USER" }
-  ]}</t>
-  </si>
-  <si>
-    <t>{"name": "existing_user", "email": "other@email.com", "password": "password123", "roles": [
-    { "name": "USER" }
-  ]}</t>
-  </si>
-  <si>
-    <t>{"name": "other_user_same_email", "email": "existing@email.com", "password": "password123", "roles": [
-    { "name": "USER" }
-  ]}</t>
+    <t>{"name": "newuser", "email": "new@email.com", "password": "password123", "roles": [ "USER" ]}</t>
+  </si>
+  <si>
+    <t>{"name": "a", "email": "a@email.com", "password": "password123", "roles": ["USER" ]}</t>
+  </si>
+  <si>
+    <t>{"name": "existing_user", "email": "other@email.com", "password": "password123",  "roles": ["USER" ]}</t>
+  </si>
+  <si>
+    <t>{"name": "other_user_same_email", "email": "existing@email.com", "password": "password123",  "roles": ["USER" ]}</t>
   </si>
 </sst>
 </file>
@@ -597,7 +589,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
